--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,25 +472,45 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ma15</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>range</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>fee_Buy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>fee_Cell</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ror</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>hpr</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>dd</t>
         </is>
@@ -498,1140 +518,4998 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44753.375</v>
+        <v>44688.375</v>
       </c>
       <c r="B2" t="n">
-        <v>27317000</v>
+        <v>3516000</v>
       </c>
       <c r="C2" t="n">
-        <v>27327000</v>
+        <v>3519000</v>
       </c>
       <c r="D2" t="n">
-        <v>26400000</v>
+        <v>3425000</v>
       </c>
       <c r="E2" t="n">
-        <v>26460000</v>
+        <v>3456000</v>
       </c>
       <c r="F2" t="n">
-        <v>5812.7656968</v>
+        <v>15633.49455129</v>
       </c>
       <c r="G2" t="n">
-        <v>156475302283.7503</v>
+        <v>54460035759.33753</v>
       </c>
       <c r="H2" t="n">
-        <v>92700</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2342466.666666667</v>
+      </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
+        <v>75200</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>8640</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44754.375</v>
+        <v>44689.375</v>
       </c>
       <c r="B3" t="n">
-        <v>26474000</v>
+        <v>3456000</v>
       </c>
       <c r="C3" t="n">
-        <v>26565000</v>
+        <v>3463000</v>
       </c>
       <c r="D3" t="n">
-        <v>25650000</v>
+        <v>3285000</v>
       </c>
       <c r="E3" t="n">
-        <v>25723000</v>
+        <v>3311000</v>
       </c>
       <c r="F3" t="n">
-        <v>5167.36529415</v>
+        <v>32698.30972128</v>
       </c>
       <c r="G3" t="n">
-        <v>135294867708.1206</v>
+        <v>109684182917.6429</v>
       </c>
       <c r="H3" t="n">
-        <v>91500</v>
+        <v>0.8</v>
       </c>
       <c r="I3" t="n">
-        <v>26566700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>142400</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>3531200</v>
       </c>
       <c r="L3" t="n">
+        <v>8828</v>
+      </c>
+      <c r="M3" t="n">
+        <v>8277.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44755.375</v>
+        <v>44690.375</v>
       </c>
       <c r="B4" t="n">
-        <v>25723000</v>
+        <v>3312000</v>
       </c>
       <c r="C4" t="n">
-        <v>26759000</v>
+        <v>3333000</v>
       </c>
       <c r="D4" t="n">
-        <v>25200000</v>
+        <v>3025000</v>
       </c>
       <c r="E4" t="n">
-        <v>26611000</v>
+        <v>3038000</v>
       </c>
       <c r="F4" t="n">
-        <v>8364.96759425</v>
+        <v>92388.66206083</v>
       </c>
       <c r="G4" t="n">
-        <v>216442044153.6275</v>
+        <v>291222948236.2881</v>
       </c>
       <c r="H4" t="n">
-        <v>155900</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
-        <v>25814500</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>1.030854752174166</v>
+        <v>246400</v>
       </c>
       <c r="K4" t="n">
-        <v>1.030854752174166</v>
+        <v>3454400</v>
       </c>
       <c r="L4" t="n">
+        <v>8636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7595</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44756.375</v>
+        <v>44691.375</v>
       </c>
       <c r="B5" t="n">
-        <v>26604000</v>
+        <v>3038000</v>
       </c>
       <c r="C5" t="n">
-        <v>27500000</v>
+        <v>3225000</v>
       </c>
       <c r="D5" t="n">
-        <v>26103000</v>
+        <v>2968000</v>
       </c>
       <c r="E5" t="n">
-        <v>27135000</v>
+        <v>3095000</v>
       </c>
       <c r="F5" t="n">
-        <v>6982.83175399</v>
+        <v>90011.24187953</v>
       </c>
       <c r="G5" t="n">
-        <v>186298867158.771</v>
+        <v>280700299716.4725</v>
       </c>
       <c r="H5" t="n">
-        <v>139700</v>
+        <v>0.8</v>
       </c>
       <c r="I5" t="n">
-        <v>26759900</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>1.014017242216899</v>
+        <v>205600</v>
       </c>
       <c r="K5" t="n">
-        <v>1.045304492925833</v>
+        <v>3284400</v>
       </c>
       <c r="L5" t="n">
+        <v>8211</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7737.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44757.375</v>
+        <v>44692.375</v>
       </c>
       <c r="B6" t="n">
-        <v>27140000</v>
+        <v>3097000</v>
       </c>
       <c r="C6" t="n">
-        <v>27899000</v>
+        <v>3299000</v>
       </c>
       <c r="D6" t="n">
-        <v>26914000</v>
+        <v>2812000</v>
       </c>
       <c r="E6" t="n">
-        <v>27518000</v>
+        <v>2884000</v>
       </c>
       <c r="F6" t="n">
-        <v>6257.93313595</v>
+        <v>197471.71707922</v>
       </c>
       <c r="G6" t="n">
-        <v>171512370994.4794</v>
+        <v>605144687161.0381</v>
       </c>
       <c r="H6" t="n">
-        <v>98500</v>
+        <v>0.8</v>
       </c>
       <c r="I6" t="n">
-        <v>27279700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>1.008735433307551</v>
+        <v>389600</v>
       </c>
       <c r="K6" t="n">
-        <v>1.05443568060987</v>
+        <v>3302600</v>
       </c>
       <c r="L6" t="n">
+        <v>8256.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7210</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44758.375</v>
+        <v>44693.375</v>
       </c>
       <c r="B7" t="n">
-        <v>27496000</v>
+        <v>2884000</v>
       </c>
       <c r="C7" t="n">
-        <v>28387000</v>
+        <v>2984000</v>
       </c>
       <c r="D7" t="n">
-        <v>27114000</v>
+        <v>2450000</v>
       </c>
       <c r="E7" t="n">
-        <v>27857000</v>
+        <v>2648000</v>
       </c>
       <c r="F7" t="n">
-        <v>5336.1088057</v>
+        <v>205240.63886799</v>
       </c>
       <c r="G7" t="n">
-        <v>147797725204.1985</v>
+        <v>546890751956.0728</v>
       </c>
       <c r="H7" t="n">
-        <v>127300</v>
+        <v>0.8</v>
       </c>
       <c r="I7" t="n">
-        <v>27594500</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J7" t="n">
-        <v>1.009512765224954</v>
+        <v>427200</v>
       </c>
       <c r="K7" t="n">
-        <v>1.064466279684326</v>
+        <v>3273600</v>
       </c>
       <c r="L7" t="n">
+        <v>8184</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6620</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44759.375</v>
+        <v>44694.375</v>
       </c>
       <c r="B8" t="n">
-        <v>27856000</v>
+        <v>2647000</v>
       </c>
       <c r="C8" t="n">
-        <v>28481000</v>
+        <v>2841000</v>
       </c>
       <c r="D8" t="n">
-        <v>27453000</v>
+        <v>2616000</v>
       </c>
       <c r="E8" t="n">
-        <v>27505000</v>
+        <v>2694000</v>
       </c>
       <c r="F8" t="n">
-        <v>6347.36604649</v>
+        <v>120831.64523344</v>
       </c>
       <c r="G8" t="n">
-        <v>177769552412.6481</v>
+        <v>332745981020.5682</v>
       </c>
       <c r="H8" t="n">
-        <v>102800</v>
+        <v>0.8</v>
       </c>
       <c r="I8" t="n">
-        <v>27983300</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9829076627845894</v>
+        <v>180000</v>
       </c>
       <c r="K8" t="n">
-        <v>1.046272063077528</v>
+        <v>3074200</v>
       </c>
       <c r="L8" t="n">
-        <v>1.709233721541062</v>
+        <v>7685.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6735</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44760.375</v>
+        <v>44695.375</v>
       </c>
       <c r="B9" t="n">
-        <v>27505000</v>
+        <v>2694000</v>
       </c>
       <c r="C9" t="n">
-        <v>29613000</v>
+        <v>2780000</v>
       </c>
       <c r="D9" t="n">
-        <v>27450000</v>
+        <v>2609000</v>
       </c>
       <c r="E9" t="n">
-        <v>29322000</v>
+        <v>2733000</v>
       </c>
       <c r="F9" t="n">
-        <v>13859.74527805</v>
+        <v>58405.11587875</v>
       </c>
       <c r="G9" t="n">
-        <v>398300909441.9459</v>
+        <v>158140676751.0391</v>
       </c>
       <c r="H9" t="n">
-        <v>216300</v>
+        <v>0.8</v>
       </c>
       <c r="I9" t="n">
-        <v>27607800</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>1.062091148153783</v>
+        <v>136800</v>
       </c>
       <c r="K9" t="n">
-        <v>1.111236296755239</v>
+        <v>2874000</v>
       </c>
       <c r="L9" t="n">
+        <v>7185</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6832.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44761.375</v>
+        <v>44696.375</v>
       </c>
       <c r="B10" t="n">
-        <v>29322000</v>
+        <v>2732000</v>
       </c>
       <c r="C10" t="n">
-        <v>31050000</v>
+        <v>2826000</v>
       </c>
       <c r="D10" t="n">
-        <v>28476000</v>
+        <v>2667000</v>
       </c>
       <c r="E10" t="n">
-        <v>30660000</v>
+        <v>2806000</v>
       </c>
       <c r="F10" t="n">
-        <v>14595.94785594</v>
+        <v>41871.49679296</v>
       </c>
       <c r="G10" t="n">
-        <v>432241993220.2606</v>
+        <v>114723383762.1948</v>
       </c>
       <c r="H10" t="n">
-        <v>257400</v>
+        <v>0.8</v>
       </c>
       <c r="I10" t="n">
-        <v>29538300</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J10" t="n">
-        <v>1.037974426422644</v>
+        <v>127200</v>
       </c>
       <c r="K10" t="n">
-        <v>1.153434857744543</v>
+        <v>2868800</v>
       </c>
       <c r="L10" t="n">
+        <v>7172</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7015</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44762.375</v>
+        <v>44697.375</v>
       </c>
       <c r="B11" t="n">
-        <v>30646000</v>
+        <v>2806000</v>
       </c>
       <c r="C11" t="n">
-        <v>31831000</v>
+        <v>2809000</v>
       </c>
       <c r="D11" t="n">
-        <v>30128000</v>
+        <v>2622000</v>
       </c>
       <c r="E11" t="n">
-        <v>30505000</v>
+        <v>2660000</v>
       </c>
       <c r="F11" t="n">
-        <v>12434.44375652</v>
+        <v>56260.19328081</v>
       </c>
       <c r="G11" t="n">
-        <v>385272873489.7735</v>
+        <v>151401701766.461</v>
       </c>
       <c r="H11" t="n">
-        <v>170300</v>
+        <v>0.8</v>
       </c>
       <c r="I11" t="n">
-        <v>30903400</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9871082146301055</v>
+        <v>149600</v>
       </c>
       <c r="K11" t="n">
-        <v>1.138565023120345</v>
+        <v>2933200</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28917853698946</v>
+        <v>7333</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6650</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44763.375</v>
+        <v>44698.375</v>
       </c>
       <c r="B12" t="n">
-        <v>30500000</v>
+        <v>2661000</v>
       </c>
       <c r="C12" t="n">
-        <v>30849000</v>
+        <v>2742000</v>
       </c>
       <c r="D12" t="n">
-        <v>29621000</v>
+        <v>2617000</v>
       </c>
       <c r="E12" t="n">
-        <v>30415000</v>
+        <v>2695000</v>
       </c>
       <c r="F12" t="n">
-        <v>10664.60764073</v>
+        <v>50208.23970187</v>
       </c>
       <c r="G12" t="n">
-        <v>322028032629.5919</v>
+        <v>134759529542.2141</v>
       </c>
       <c r="H12" t="n">
-        <v>122800</v>
+        <v>0.8</v>
       </c>
       <c r="I12" t="n">
-        <v>30670300</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9916759862146768</v>
+        <v>100000</v>
       </c>
       <c r="K12" t="n">
-        <v>1.129087592172405</v>
+        <v>2810600</v>
       </c>
       <c r="L12" t="n">
-        <v>2.110848775608141</v>
+        <v>7026.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6737.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44764.375</v>
+        <v>44699.375</v>
       </c>
       <c r="B13" t="n">
-        <v>30415000</v>
+        <v>2696000</v>
       </c>
       <c r="C13" t="n">
-        <v>31201000</v>
+        <v>2715000</v>
       </c>
       <c r="D13" t="n">
-        <v>29874000</v>
+        <v>2465000</v>
       </c>
       <c r="E13" t="n">
-        <v>30080000</v>
+        <v>2472000</v>
       </c>
       <c r="F13" t="n">
-        <v>7607.90890932</v>
+        <v>59690.49480803</v>
       </c>
       <c r="G13" t="n">
-        <v>232744416254.3032</v>
+        <v>154048479621.0116</v>
       </c>
       <c r="H13" t="n">
-        <v>132700</v>
+        <v>0.8</v>
       </c>
       <c r="I13" t="n">
-        <v>30537800</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9850087432624485</v>
+        <v>200000</v>
       </c>
       <c r="K13" t="n">
-        <v>1.112161150198964</v>
+        <v>2796000</v>
       </c>
       <c r="L13" t="n">
-        <v>3.578330173433996</v>
+        <v>6990</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6180</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44765.375</v>
+        <v>44700.375</v>
       </c>
       <c r="B14" t="n">
-        <v>30077000</v>
+        <v>2473000</v>
       </c>
       <c r="C14" t="n">
-        <v>30272000</v>
+        <v>2610000</v>
       </c>
       <c r="D14" t="n">
-        <v>29214000</v>
+        <v>2450000</v>
       </c>
       <c r="E14" t="n">
-        <v>29722000</v>
+        <v>2583000</v>
       </c>
       <c r="F14" t="n">
-        <v>5699.5983605</v>
+        <v>53482.29408966</v>
       </c>
       <c r="G14" t="n">
-        <v>169985086874.1196</v>
+        <v>135070332097.9443</v>
       </c>
       <c r="H14" t="n">
-        <v>105800</v>
+        <v>0.8</v>
       </c>
       <c r="I14" t="n">
-        <v>30209700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9838561786446075</v>
+        <v>128000</v>
       </c>
       <c r="K14" t="n">
-        <v>1.094206619271744</v>
+        <v>2673000</v>
       </c>
       <c r="L14" t="n">
-        <v>5.134944385902722</v>
+        <v>6682.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6457.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44766.375</v>
+        <v>44701.375</v>
       </c>
       <c r="B15" t="n">
-        <v>29704000</v>
+        <v>2582000</v>
       </c>
       <c r="C15" t="n">
-        <v>30195000</v>
+        <v>2649000</v>
       </c>
       <c r="D15" t="n">
-        <v>29498000</v>
+        <v>2491000</v>
       </c>
       <c r="E15" t="n">
-        <v>29818000</v>
+        <v>2538000</v>
       </c>
       <c r="F15" t="n">
-        <v>5186.69159558</v>
+        <v>43075.36229295</v>
       </c>
       <c r="G15" t="n">
-        <v>154939287726.8473</v>
+        <v>110917000433.6798</v>
       </c>
       <c r="H15" t="n">
-        <v>69700</v>
+        <v>0.8</v>
       </c>
       <c r="I15" t="n">
-        <v>29809800</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>1.000275077323565</v>
+        <v>126400</v>
       </c>
       <c r="K15" t="n">
-        <v>1.0945076107</v>
+        <v>2710000</v>
       </c>
       <c r="L15" t="n">
-        <v>5.108849160304574</v>
+        <v>6775</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6345</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44767.375</v>
+        <v>44702.375</v>
       </c>
       <c r="B16" t="n">
-        <v>29818000</v>
+        <v>2537000</v>
       </c>
       <c r="C16" t="n">
-        <v>29938000</v>
+        <v>2565000</v>
       </c>
       <c r="D16" t="n">
-        <v>28500000</v>
+        <v>2513000</v>
       </c>
       <c r="E16" t="n">
-        <v>28555000</v>
+        <v>2552000</v>
       </c>
       <c r="F16" t="n">
-        <v>8196.41047121</v>
+        <v>19261.93397533</v>
       </c>
       <c r="G16" t="n">
-        <v>238652164946.971</v>
+        <v>48999660186.0579</v>
       </c>
       <c r="H16" t="n">
-        <v>143800</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>29887700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9554097504993693</v>
+        <v>41600</v>
       </c>
       <c r="K16" t="n">
-        <v>1.045703243258548</v>
+        <v>2663400</v>
       </c>
       <c r="L16" t="n">
-        <v>9.340069251648577</v>
+        <v>6658.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6380</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44768.375</v>
+        <v>44703.375</v>
       </c>
       <c r="B17" t="n">
-        <v>28555000</v>
+        <v>2552000</v>
       </c>
       <c r="C17" t="n">
-        <v>28633000</v>
+        <v>2640000</v>
       </c>
       <c r="D17" t="n">
-        <v>27716000</v>
+        <v>2543000</v>
       </c>
       <c r="E17" t="n">
-        <v>28401000</v>
+        <v>2627000</v>
       </c>
       <c r="F17" t="n">
-        <v>6394.87499911</v>
+        <v>23558.4776052</v>
       </c>
       <c r="G17" t="n">
-        <v>179987450702.7498</v>
+        <v>61023064019.73132</v>
       </c>
       <c r="H17" t="n">
-        <v>91700</v>
+        <v>0.8</v>
       </c>
       <c r="I17" t="n">
-        <v>28698800</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>77600</v>
       </c>
       <c r="K17" t="n">
-        <v>1.045703243258548</v>
+        <v>2593600</v>
       </c>
       <c r="L17" t="n">
-        <v>9.340069251648577</v>
+        <v>6484</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6567.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44769.375</v>
+        <v>44704.375</v>
       </c>
       <c r="B18" t="n">
-        <v>28401000</v>
+        <v>2626000</v>
       </c>
       <c r="C18" t="n">
-        <v>30492000</v>
+        <v>2666000</v>
       </c>
       <c r="D18" t="n">
-        <v>28165000</v>
+        <v>2512000</v>
       </c>
       <c r="E18" t="n">
-        <v>30202000</v>
+        <v>2533000</v>
       </c>
       <c r="F18" t="n">
-        <v>8326.594452859999</v>
+        <v>40295.78705015</v>
       </c>
       <c r="G18" t="n">
-        <v>242209334669.8846</v>
+        <v>104983242210.2991</v>
       </c>
       <c r="H18" t="n">
-        <v>232700</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="n">
-        <v>28492700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J18" t="n">
-        <v>1.059990804662247</v>
+        <v>123200</v>
       </c>
       <c r="K18" t="n">
-        <v>1.10843582225955</v>
+        <v>2703600</v>
       </c>
       <c r="L18" t="n">
-        <v>3.901307055431398</v>
+        <v>6759</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6332.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44770.375</v>
+        <v>44705.375</v>
       </c>
       <c r="B19" t="n">
-        <v>30200000</v>
+        <v>2533000</v>
       </c>
       <c r="C19" t="n">
-        <v>31573000</v>
+        <v>2553000</v>
       </c>
       <c r="D19" t="n">
-        <v>29850000</v>
+        <v>2450000</v>
       </c>
       <c r="E19" t="n">
-        <v>31217000</v>
+        <v>2525000</v>
       </c>
       <c r="F19" t="n">
-        <v>10610.58966033</v>
+        <v>36764.88947898</v>
       </c>
       <c r="G19" t="n">
-        <v>324879416776.2845</v>
+        <v>92251527003.25043</v>
       </c>
       <c r="H19" t="n">
-        <v>172300</v>
+        <v>0.8</v>
       </c>
       <c r="I19" t="n">
-        <v>30432700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J19" t="n">
-        <v>1.025771620658042</v>
+        <v>82400</v>
       </c>
       <c r="K19" t="n">
-        <v>1.137002009794608</v>
+        <v>2656200</v>
       </c>
       <c r="L19" t="n">
-        <v>1.424687995130297</v>
+        <v>6640.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6312.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44771.375</v>
+        <v>44706.375</v>
       </c>
       <c r="B20" t="n">
-        <v>31217000</v>
+        <v>2525000</v>
       </c>
       <c r="C20" t="n">
-        <v>31990000</v>
+        <v>2564000</v>
       </c>
       <c r="D20" t="n">
-        <v>30965000</v>
+        <v>2478000</v>
       </c>
       <c r="E20" t="n">
-        <v>31404000</v>
+        <v>2494000</v>
       </c>
       <c r="F20" t="n">
-        <v>9751.91139782</v>
+        <v>33407.42272637</v>
       </c>
       <c r="G20" t="n">
-        <v>306877006552.7374</v>
+        <v>84111796331.72502</v>
       </c>
       <c r="H20" t="n">
-        <v>102500</v>
+        <v>0.8</v>
       </c>
       <c r="I20" t="n">
-        <v>31389300</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J20" t="n">
-        <v>1.000468312450421</v>
+        <v>68800</v>
       </c>
       <c r="K20" t="n">
-        <v>1.137534481991949</v>
+        <v>2607400</v>
       </c>
       <c r="L20" t="n">
-        <v>1.378523949214279</v>
+        <v>6518.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>6235</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44772.375</v>
+        <v>44707.375</v>
       </c>
       <c r="B21" t="n">
-        <v>31402000</v>
+        <v>2495000</v>
       </c>
       <c r="C21" t="n">
-        <v>32500000</v>
+        <v>2513000</v>
       </c>
       <c r="D21" t="n">
-        <v>31171000</v>
+        <v>2252000</v>
       </c>
       <c r="E21" t="n">
-        <v>31281000</v>
+        <v>2314000</v>
       </c>
       <c r="F21" t="n">
-        <v>7360.05975571</v>
+        <v>95110.33605038001</v>
       </c>
       <c r="G21" t="n">
-        <v>234009470197.652</v>
+        <v>226257512123.1988</v>
       </c>
       <c r="H21" t="n">
-        <v>132900</v>
+        <v>0.8</v>
       </c>
       <c r="I21" t="n">
-        <v>31504500</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J21" t="n">
-        <v>0.992905775365424</v>
+        <v>208800</v>
       </c>
       <c r="K21" t="n">
-        <v>1.129464556847122</v>
+        <v>2563800</v>
       </c>
       <c r="L21" t="n">
-        <v>2.078166854112003</v>
+        <v>6409.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5785</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44773.375</v>
+        <v>44708.375</v>
       </c>
       <c r="B22" t="n">
-        <v>31270000</v>
+        <v>2314000</v>
       </c>
       <c r="C22" t="n">
-        <v>31775000</v>
+        <v>2331000</v>
       </c>
       <c r="D22" t="n">
-        <v>30714000</v>
+        <v>2201000</v>
       </c>
       <c r="E22" t="n">
-        <v>30751000</v>
+        <v>2225000</v>
       </c>
       <c r="F22" t="n">
-        <v>7085.40894364</v>
+        <v>79286.2646599</v>
       </c>
       <c r="G22" t="n">
-        <v>221746679600.1827</v>
+        <v>179097885044.6717</v>
       </c>
       <c r="H22" t="n">
-        <v>106100</v>
+        <v>0.8</v>
       </c>
       <c r="I22" t="n">
-        <v>31402900</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9792407707568409</v>
+        <v>104000</v>
       </c>
       <c r="K22" t="n">
-        <v>1.106017743189509</v>
+        <v>2522800</v>
       </c>
       <c r="L22" t="n">
-        <v>4.110948636297865</v>
+        <v>6307</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5562.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44774.375</v>
+        <v>44709.375</v>
       </c>
       <c r="B23" t="n">
-        <v>30750000</v>
+        <v>2224000</v>
       </c>
       <c r="C23" t="n">
-        <v>31099000</v>
+        <v>2305000</v>
       </c>
       <c r="D23" t="n">
-        <v>30392000</v>
+        <v>2215000</v>
       </c>
       <c r="E23" t="n">
-        <v>30851000</v>
+        <v>2286000</v>
       </c>
       <c r="F23" t="n">
-        <v>6632.83303678</v>
+        <v>36021.51531835</v>
       </c>
       <c r="G23" t="n">
-        <v>203970347823.3757</v>
+        <v>81432223441.44817</v>
       </c>
       <c r="H23" t="n">
-        <v>70700</v>
+        <v>0.8</v>
       </c>
       <c r="I23" t="n">
-        <v>30856100</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9998347166362567</v>
+        <v>72000</v>
       </c>
       <c r="K23" t="n">
-        <v>1.105834936856555</v>
+        <v>2328000</v>
       </c>
       <c r="L23" t="n">
-        <v>4.126797501253407</v>
+        <v>5820</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5715</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44775.375</v>
+        <v>44710.375</v>
       </c>
       <c r="B24" t="n">
-        <v>30851000</v>
+        <v>2284000</v>
       </c>
       <c r="C24" t="n">
-        <v>31141000</v>
+        <v>2327000</v>
       </c>
       <c r="D24" t="n">
-        <v>30246000</v>
+        <v>2250000</v>
       </c>
       <c r="E24" t="n">
-        <v>30754000</v>
+        <v>2306000</v>
       </c>
       <c r="F24" t="n">
-        <v>7603.47582952</v>
+        <v>24902.90143411</v>
       </c>
       <c r="G24" t="n">
-        <v>232698286944.9863</v>
+        <v>56988946003.92613</v>
       </c>
       <c r="H24" t="n">
-        <v>89500</v>
+        <v>0.8</v>
       </c>
       <c r="I24" t="n">
-        <v>30921700</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>0.9945766241830171</v>
+        <v>61600</v>
       </c>
       <c r="K24" t="n">
-        <v>1.099837578402433</v>
+        <v>2356000</v>
       </c>
       <c r="L24" t="n">
-        <v>4.646753909181813</v>
+        <v>5890</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5765</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.010345658544109</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44776.375</v>
+        <v>44711.375</v>
       </c>
       <c r="B25" t="n">
-        <v>30754000</v>
+        <v>2305000</v>
       </c>
       <c r="C25" t="n">
-        <v>31467000</v>
+        <v>2519000</v>
       </c>
       <c r="D25" t="n">
-        <v>30509000</v>
+        <v>2290000</v>
       </c>
       <c r="E25" t="n">
-        <v>30708000</v>
+        <v>2494000</v>
       </c>
       <c r="F25" t="n">
-        <v>6104.35808879</v>
+        <v>53397.95269205</v>
       </c>
       <c r="G25" t="n">
-        <v>188719530349.6021</v>
+        <v>128170068120.8211</v>
       </c>
       <c r="H25" t="n">
-        <v>95800</v>
+        <v>0.8</v>
       </c>
       <c r="I25" t="n">
-        <v>30843500</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J25" t="n">
-        <v>0.995606853956263</v>
+        <v>183200</v>
       </c>
       <c r="K25" t="n">
-        <v>1.095005831296121</v>
+        <v>2366600</v>
       </c>
       <c r="L25" t="n">
-        <v>5.065654645003174</v>
+        <v>5916.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6235</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.051197921068199</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44777.375</v>
+        <v>44712.375</v>
       </c>
       <c r="B26" t="n">
-        <v>30708000</v>
+        <v>2494000</v>
       </c>
       <c r="C26" t="n">
-        <v>30980000</v>
+        <v>2517000</v>
       </c>
       <c r="D26" t="n">
-        <v>30159000</v>
+        <v>2421000</v>
       </c>
       <c r="E26" t="n">
-        <v>30315000</v>
+        <v>2439000</v>
       </c>
       <c r="F26" t="n">
-        <v>5092.11116051</v>
+        <v>49419.62944699</v>
       </c>
       <c r="G26" t="n">
-        <v>156029549309.207</v>
+        <v>122184077567.2939</v>
       </c>
       <c r="H26" t="n">
-        <v>82100</v>
+        <v>0.8</v>
       </c>
       <c r="I26" t="n">
-        <v>30803800</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J26" t="n">
-        <v>0.984131827891364</v>
+        <v>76800</v>
       </c>
       <c r="K26" t="n">
-        <v>1.077630090305154</v>
+        <v>2677200</v>
       </c>
       <c r="L26" t="n">
-        <v>6.572089176116958</v>
+        <v>6693</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6097.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44778.375</v>
+        <v>44713.375</v>
       </c>
       <c r="B27" t="n">
-        <v>30318000</v>
+        <v>2439000</v>
       </c>
       <c r="C27" t="n">
-        <v>30990000</v>
+        <v>2476000</v>
       </c>
       <c r="D27" t="n">
-        <v>30261000</v>
+        <v>2255000</v>
       </c>
       <c r="E27" t="n">
-        <v>30767000</v>
+        <v>2312000</v>
       </c>
       <c r="F27" t="n">
-        <v>5525.87043361</v>
+        <v>55116.37970652</v>
       </c>
       <c r="G27" t="n">
-        <v>169447786524.085</v>
+        <v>131775092489.4862</v>
       </c>
       <c r="H27" t="n">
-        <v>72900</v>
+        <v>0.8</v>
       </c>
       <c r="I27" t="n">
-        <v>30400100</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J27" t="n">
-        <v>1.012069039246581</v>
+        <v>176800</v>
       </c>
       <c r="K27" t="n">
-        <v>1.090636050158344</v>
+        <v>2515800</v>
       </c>
       <c r="L27" t="n">
-        <v>5.444504053657405</v>
+        <v>6289.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5780</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44779.375</v>
+        <v>44714.375</v>
       </c>
       <c r="B28" t="n">
-        <v>30767000</v>
+        <v>2313000</v>
       </c>
       <c r="C28" t="n">
-        <v>30843000</v>
+        <v>2338000</v>
       </c>
       <c r="D28" t="n">
-        <v>30509000</v>
+        <v>2263000</v>
       </c>
       <c r="E28" t="n">
-        <v>30534000</v>
+        <v>2313000</v>
       </c>
       <c r="F28" t="n">
-        <v>2650.63355937</v>
+        <v>41476.56731005</v>
       </c>
       <c r="G28" t="n">
-        <v>81425112951.89291</v>
+        <v>95581518385.28619</v>
       </c>
       <c r="H28" t="n">
-        <v>33400</v>
+        <v>0.8</v>
       </c>
       <c r="I28" t="n">
-        <v>30839900</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9900810313911523</v>
+        <v>60000</v>
       </c>
       <c r="K28" t="n">
-        <v>1.079818065413146</v>
+        <v>2489800</v>
       </c>
       <c r="L28" t="n">
-        <v>6.382397049743192</v>
+        <v>6224.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5782.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44780.375</v>
+        <v>44715.375</v>
       </c>
       <c r="B29" t="n">
-        <v>30534000</v>
+        <v>2314000</v>
       </c>
       <c r="C29" t="n">
-        <v>30899000</v>
+        <v>2319000</v>
       </c>
       <c r="D29" t="n">
-        <v>30440000</v>
+        <v>2220000</v>
       </c>
       <c r="E29" t="n">
-        <v>30685000</v>
+        <v>2262000</v>
       </c>
       <c r="F29" t="n">
-        <v>2514.51503225</v>
+        <v>42175.56090269</v>
       </c>
       <c r="G29" t="n">
-        <v>77019180215.84589</v>
+        <v>95528779262.53906</v>
       </c>
       <c r="H29" t="n">
-        <v>45900</v>
+        <v>0.8</v>
       </c>
       <c r="I29" t="n">
-        <v>30567400</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J29" t="n">
-        <v>1.003847235944176</v>
+        <v>79200</v>
       </c>
       <c r="K29" t="n">
-        <v>1.083972380287573</v>
+        <v>2374000</v>
       </c>
       <c r="L29" t="n">
-        <v>6.022228042665383</v>
+        <v>5935</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5655</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44781.375</v>
+        <v>44716.375</v>
       </c>
       <c r="B30" t="n">
-        <v>30695000</v>
+        <v>2262000</v>
       </c>
       <c r="C30" t="n">
-        <v>31925000</v>
+        <v>2304000</v>
       </c>
       <c r="D30" t="n">
-        <v>30680000</v>
+        <v>2235000</v>
       </c>
       <c r="E30" t="n">
-        <v>31459000</v>
+        <v>2291000</v>
       </c>
       <c r="F30" t="n">
-        <v>5716.18441331</v>
+        <v>17061.98617453</v>
       </c>
       <c r="G30" t="n">
-        <v>179948905273.3112</v>
+        <v>38552923839.52855</v>
       </c>
       <c r="H30" t="n">
-        <v>124500</v>
+        <v>0.8</v>
       </c>
       <c r="I30" t="n">
-        <v>30740900</v>
+        <v>2342466.666666667</v>
       </c>
       <c r="J30" t="n">
-        <v>1.023359758497637</v>
+        <v>55200</v>
       </c>
       <c r="K30" t="n">
-        <v>1.109293713309199</v>
+        <v>2341200</v>
       </c>
       <c r="L30" t="n">
-        <v>3.826929985596085</v>
+        <v>5853</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5727.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>44717.375</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2290000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2255000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2296000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>17244.84958029</v>
+      </c>
+      <c r="G31" t="n">
+        <v>39383694187.69209</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J31" t="n">
+        <v>51200</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2345200</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5863</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5740</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.062073255821848</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44718.375</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2295000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2412000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2292000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2346000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>40136.37012001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>95098952320.39371</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J32" t="n">
+        <v>96000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2346200</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5865.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5865</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.997414968885858</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44719.375</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2346000</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2366000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2213000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2296000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>70598.49647442999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>159530796095.0496</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J33" t="n">
+        <v>122400</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2442000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6105</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5740</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44720.375</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2296000</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2330000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2251000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2286000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>34792.74294188</v>
+      </c>
+      <c r="G34" t="n">
+        <v>79603110028.30067</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J34" t="n">
+        <v>63200</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2418400</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6046</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5715</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44721.375</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2286000</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2321000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2265000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2273000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26390.6466693</v>
+      </c>
+      <c r="G35" t="n">
+        <v>60306704016.1736</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J35" t="n">
+        <v>44800</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2349200</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5873</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5682.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44722.375</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2273000</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2291000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2150000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2156000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>52867.74297214</v>
+      </c>
+      <c r="G36" t="n">
+        <v>117325010312.9229</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J36" t="n">
+        <v>112800</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2317800</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5794.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5390</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44723.375</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2156000</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2178000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1956000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>126370.28881024</v>
+      </c>
+      <c r="G37" t="n">
+        <v>257906649957.031</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J37" t="n">
+        <v>177600</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2268800</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5672</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5002.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44724.375</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2011000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1855000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1873500</v>
+      </c>
+      <c r="F38" t="n">
+        <v>106369.66771498</v>
+      </c>
+      <c r="G38" t="n">
+        <v>203764315913.7205</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J38" t="n">
+        <v>124800</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2178600</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5446.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4683.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44725.375</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1873500</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1895000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1524500</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1577500</v>
+      </c>
+      <c r="F39" t="n">
+        <v>355457.20955066</v>
+      </c>
+      <c r="G39" t="n">
+        <v>589404696551.2993</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J39" t="n">
+        <v>296400</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1998300</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4995.75</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3943.75</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44726.375</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1637500</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1407000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1573500</v>
+      </c>
+      <c r="F40" t="n">
+        <v>296154.22378216</v>
+      </c>
+      <c r="G40" t="n">
+        <v>456264295698.0425</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J40" t="n">
+        <v>184400</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1872400</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4681</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3933.75</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44727.375</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1573500</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1620000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1601500</v>
+      </c>
+      <c r="F41" t="n">
+        <v>465129.37958289</v>
+      </c>
+      <c r="G41" t="n">
+        <v>685409940844.5015</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J41" t="n">
+        <v>216000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1757900</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4394.75</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4003.75</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44728.375</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1601500</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1621000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1388500</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1408000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>225398.70182606</v>
+      </c>
+      <c r="G42" t="n">
+        <v>337115687972.4868</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J42" t="n">
+        <v>186000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1817500</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4543.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3520</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44729.375</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1408000</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1462500</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1378500</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1432500</v>
+      </c>
+      <c r="F43" t="n">
+        <v>135065.08203595</v>
+      </c>
+      <c r="G43" t="n">
+        <v>192792498590.6424</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J43" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1594000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3985</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3581.25</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44730.375</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1432000</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1445500</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1201500</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1313000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>268059.05323275</v>
+      </c>
+      <c r="G44" t="n">
+        <v>350980975632.7891</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J44" t="n">
+        <v>195200</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1499200</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3748</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3282.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44731.375</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1312500</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1487500</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1237500</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1462000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>275753.35360358</v>
+      </c>
+      <c r="G45" t="n">
+        <v>377143596577.1303</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J45" t="n">
+        <v>200000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1507700</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3769.25</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3655</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44732.375</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1462000</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1516000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1373000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1460500</v>
+      </c>
+      <c r="F46" t="n">
+        <v>222374.50569095</v>
+      </c>
+      <c r="G46" t="n">
+        <v>321114390295.9227</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J46" t="n">
+        <v>114400</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1662000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4155</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3651.25</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44733.375</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1460500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1535500</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1466500</v>
+      </c>
+      <c r="F47" t="n">
+        <v>167537.16091613</v>
+      </c>
+      <c r="G47" t="n">
+        <v>249535652186.1873</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J47" t="n">
+        <v>76400</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1574900</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3937.25</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3666.25</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44734.375</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1466500</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1468000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1374000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1378000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>124033.77233742</v>
+      </c>
+      <c r="G48" t="n">
+        <v>176491955219.7401</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J48" t="n">
+        <v>75200</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1542900</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3857.25</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3445</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44735.375</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1378000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1495000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1373500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1481500</v>
+      </c>
+      <c r="F49" t="n">
+        <v>92824.65778478001</v>
+      </c>
+      <c r="G49" t="n">
+        <v>133490849353.9521</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J49" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1453200</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3633</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3703.75</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44736.375</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1481500</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1613500</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1468500</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1591500</v>
+      </c>
+      <c r="F50" t="n">
+        <v>115083.32085358</v>
+      </c>
+      <c r="G50" t="n">
+        <v>176671084620.9381</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J50" t="n">
+        <v>116000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1578700</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3946.75</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3978.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44737.375</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1592000</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1536500</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1608500</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77594.97887183</v>
+      </c>
+      <c r="G51" t="n">
+        <v>122836582762.7896</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J51" t="n">
+        <v>74800</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1708000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4270</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4021.25</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44738.375</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1608000</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1660000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1564500</v>
+      </c>
+      <c r="F52" t="n">
+        <v>75761.60786819999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>121910899748.9572</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J52" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1682800</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4207</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3911.25</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44739.375</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1563500</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1604000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1528000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1553000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>73384.76766252999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>115030117044.8682</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J53" t="n">
+        <v>60800</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1643500</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4108.75</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3882.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44740.375</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1553000</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1600500</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1490500</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>77320.59417323</v>
+      </c>
+      <c r="G54" t="n">
+        <v>119332715640.2213</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J54" t="n">
+        <v>88000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1613800</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4034.5</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3745</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44741.375</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1498000</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1510000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1435500</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1453000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>75102.95523452001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>110798956613.2561</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J55" t="n">
+        <v>59600</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1586000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3965</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3632.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44742.375</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1453000</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1462000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1331500</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1400500</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100591.49476261</v>
+      </c>
+      <c r="G56" t="n">
+        <v>138513409990.666</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J56" t="n">
+        <v>104400</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1512600</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3781.5</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3501.25</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44743.375</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1398500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1365000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1403500</v>
+      </c>
+      <c r="F57" t="n">
+        <v>101323.79220658</v>
+      </c>
+      <c r="G57" t="n">
+        <v>142208338852.0392</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J57" t="n">
+        <v>68000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1502900</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3757.25</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3508.75</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44744.375</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1405000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1424000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1364000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1409500</v>
+      </c>
+      <c r="F58" t="n">
+        <v>42066.22324614</v>
+      </c>
+      <c r="G58" t="n">
+        <v>58517932849.08219</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J58" t="n">
+        <v>48000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1473000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3682.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3523.75</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44745.375</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1409500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1433500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1381500</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1416000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>37904.04946525</v>
+      </c>
+      <c r="G59" t="n">
+        <v>53328185296.65972</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J59" t="n">
+        <v>41600</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1457500</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3643.75</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3540</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44746.375</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1416000</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1514500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>75465.56686933</v>
+      </c>
+      <c r="G60" t="n">
+        <v>108503352129.0286</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>107600</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1457600</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3644</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3750</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44747.375</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1501000</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1539500</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1432000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1491500</v>
+      </c>
+      <c r="F61" t="n">
+        <v>91375.82056706</v>
+      </c>
+      <c r="G61" t="n">
+        <v>136243000501.6178</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J61" t="n">
+        <v>86000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1608600</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4021.5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3728.75</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44748.375</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1491000</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1576000</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1468500</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1553500</v>
+      </c>
+      <c r="F62" t="n">
+        <v>75022.15020396</v>
+      </c>
+      <c r="G62" t="n">
+        <v>113215485322.8322</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J62" t="n">
+        <v>86000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1577000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3942.5</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3883.75</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44749.375</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1553500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1628000</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1527000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1607500</v>
+      </c>
+      <c r="F63" t="n">
+        <v>69315.71204157</v>
+      </c>
+      <c r="G63" t="n">
+        <v>109185587967.4446</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J63" t="n">
+        <v>80800</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1639500</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4098.75</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4018.75</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44750.375</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1607000</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1651000</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1567000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>97530.60463689</v>
+      </c>
+      <c r="G64" t="n">
+        <v>156938220113.3654</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J64" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1687800</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4219.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3975</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44751.375</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1607000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1588000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>33637.7630676</v>
+      </c>
+      <c r="G65" t="n">
+        <v>53457809599.89213</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25600</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1657200</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4143</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3970</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44752.375</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1587500</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1592000</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1516500</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>42677.09468012</v>
+      </c>
+      <c r="G66" t="n">
+        <v>66012146984.74809</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J66" t="n">
+        <v>60400</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1613100</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4032.75</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3825</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44753.375</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1537000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1451000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1454500</v>
+      </c>
+      <c r="F67" t="n">
+        <v>56091.08838472</v>
+      </c>
+      <c r="G67" t="n">
+        <v>84072765660.0976</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J67" t="n">
+        <v>68800</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1590400</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3976</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3636.25</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44754.375</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1454500</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1456500</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1378000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1381000</v>
+      </c>
+      <c r="F68" t="n">
+        <v>74666.41992519</v>
+      </c>
+      <c r="G68" t="n">
+        <v>105921954202.0085</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J68" t="n">
+        <v>62800</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1523300</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3808.25</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3452.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44755.375</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1380500</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1468000</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1345500</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1466500</v>
+      </c>
+      <c r="F69" t="n">
+        <v>120082.70369892</v>
+      </c>
+      <c r="G69" t="n">
+        <v>168105669620.9264</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J69" t="n">
+        <v>98000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1443300</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3608.25</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3666.25</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44756.375</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1466500</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1596000</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1423000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1571000</v>
+      </c>
+      <c r="F70" t="n">
+        <v>100722.61070183</v>
+      </c>
+      <c r="G70" t="n">
+        <v>150585577410.8559</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J70" t="n">
+        <v>138400</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1564500</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3911.25</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3927.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44757.375</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1571000</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1693000</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1556500</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>98180.14470438</v>
+      </c>
+      <c r="G71" t="n">
+        <v>158155202780.5337</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J71" t="n">
+        <v>109200</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1709400</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4273.5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4067.5</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44758.375</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1625500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1857500</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1577500</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1780500</v>
+      </c>
+      <c r="F72" t="n">
+        <v>140751.06067051</v>
+      </c>
+      <c r="G72" t="n">
+        <v>239998919500.4652</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J72" t="n">
+        <v>224000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1734700</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4336.75</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4451.25</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44759.375</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1780500</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1820000</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1742000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1767500</v>
+      </c>
+      <c r="F73" t="n">
+        <v>117113.6074361</v>
+      </c>
+      <c r="G73" t="n">
+        <v>208908511123.2119</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J73" t="n">
+        <v>62400</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2004500</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5011.25</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4418.75</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44760.375</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1767500</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2092000</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1764000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2072000</v>
+      </c>
+      <c r="F74" t="n">
+        <v>185860.47179199</v>
+      </c>
+      <c r="G74" t="n">
+        <v>357242600697.5568</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J74" t="n">
+        <v>262400</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1829900</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4574.75</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5180</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44761.375</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2072000</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2135000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1965000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2027000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>184621.23102597</v>
+      </c>
+      <c r="G75" t="n">
+        <v>375119567884.9929</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J75" t="n">
+        <v>136000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2334400</v>
+      </c>
+      <c r="L75" t="n">
+        <v>5836</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5067.5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44762.375</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2027000</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2124000</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1974000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1999000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>156830.45497546</v>
+      </c>
+      <c r="G76" t="n">
+        <v>321994156628.2839</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J76" t="n">
+        <v>120000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2163000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5407.5</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4997.5</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44763.375</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2108000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1936000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2068000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>118447.39370384</v>
+      </c>
+      <c r="G77" t="n">
+        <v>237430191670.6637</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J77" t="n">
+        <v>137600</v>
+      </c>
+      <c r="K77" t="n">
+        <v>2120000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5300</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5170</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44764.375</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2067000</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2166000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2012000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2033000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>113668.10271551</v>
+      </c>
+      <c r="G78" t="n">
+        <v>238318064405.7184</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J78" t="n">
+        <v>123200</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2204600</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5511.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5082.5</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44765.375</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2036000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2102000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1985000</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>75889.32780029</v>
+      </c>
+      <c r="G79" t="n">
+        <v>155127131331.1138</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J79" t="n">
+        <v>93600</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2159200</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5398</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5122.5</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44766.375</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2049000</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2184000</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2046000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2109000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>107719.82301329</v>
+      </c>
+      <c r="G80" t="n">
+        <v>227248159349.5799</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J80" t="n">
+        <v>110400</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2142600</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5356.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5272.5</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44767.375</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2111000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2127000</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1926500</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1932000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>138488.87743122</v>
+      </c>
+      <c r="G81" t="n">
+        <v>279208674505.4448</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J81" t="n">
+        <v>160400</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2221400</v>
+      </c>
+      <c r="L81" t="n">
+        <v>5553.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4830</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44768.375</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1932000</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1944000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1818500</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1936500</v>
+      </c>
+      <c r="F82" t="n">
+        <v>128053.76286449</v>
+      </c>
+      <c r="G82" t="n">
+        <v>241291275305.0199</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J82" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2092400</v>
+      </c>
+      <c r="L82" t="n">
+        <v>5231</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4841.25</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44769.375</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1937000</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2159000</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1902500</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2153000</v>
+      </c>
+      <c r="F83" t="n">
+        <v>155223.37232726</v>
+      </c>
+      <c r="G83" t="n">
+        <v>313186568853.1364</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J83" t="n">
+        <v>205200</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2037400</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5093.5</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5382.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44770.375</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2152000</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2328000</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2106000</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2256000</v>
+      </c>
+      <c r="F84" t="n">
+        <v>174828.14347247</v>
+      </c>
+      <c r="G84" t="n">
+        <v>383259186250.1904</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J84" t="n">
+        <v>177600</v>
+      </c>
+      <c r="K84" t="n">
+        <v>2357200</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5893</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5640</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44771.375</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2256000</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2325000</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2189000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2275000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>130199.32382854</v>
+      </c>
+      <c r="G85" t="n">
+        <v>293865374017.0222</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J85" t="n">
+        <v>108800</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2433600</v>
+      </c>
+      <c r="L85" t="n">
+        <v>6084</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5687.5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44772.375</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2275000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2295000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2221000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2243000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>70837.76991132001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>160120207458.5159</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J86" t="n">
+        <v>59200</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2383800</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5959.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5607.5</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44773.375</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2243000</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2299000</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2205000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>58264.26142957</v>
+      </c>
+      <c r="G87" t="n">
+        <v>130993897197.3974</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J87" t="n">
+        <v>75200</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2302200</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5755.5</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5537.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44774.375</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2246000</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2139000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2167000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>60371.54762382</v>
+      </c>
+      <c r="G88" t="n">
+        <v>132869223576.3188</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J88" t="n">
+        <v>85600</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2290200</v>
+      </c>
+      <c r="L88" t="n">
+        <v>5725.5</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5417.5</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44775.375</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2166000</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2223000</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2082000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2183000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>89154.46927378001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>190971096703.0954</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J89" t="n">
+        <v>112800</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2251600</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5629</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5457.5</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44776.375</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2186000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2239000</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2141000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2178000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>62501.80645118</v>
+      </c>
+      <c r="G90" t="n">
+        <v>136872956063.4605</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J90" t="n">
+        <v>78400</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2298800</v>
+      </c>
+      <c r="L90" t="n">
+        <v>5747</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5445</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44777.375</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2125000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2151000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>56928.04169836</v>
+      </c>
+      <c r="G91" t="n">
+        <v>123548518763.86</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J91" t="n">
+        <v>72000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2257400</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5643.5</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5377.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44778.375</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2154000</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2297000</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2148000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2293000</v>
+      </c>
+      <c r="F92" t="n">
+        <v>82392.36236105001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>183516912305.6131</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J92" t="n">
+        <v>119200</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2226000</v>
+      </c>
+      <c r="L92" t="n">
+        <v>5565</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5732.5</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44779.375</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2293000</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2314000</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2241000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2247000</v>
+      </c>
+      <c r="F93" t="n">
+        <v>43800.97341668</v>
+      </c>
+      <c r="G93" t="n">
+        <v>99978137989.23006</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J93" t="n">
+        <v>58400</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2412200</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6030.5</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5617.5</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44780.375</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2247000</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2283000</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2223000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2254000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>33461.90984268</v>
+      </c>
+      <c r="G94" t="n">
+        <v>75266059250.64198</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J94" t="n">
+        <v>48000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2305400</v>
+      </c>
+      <c r="L94" t="n">
+        <v>5763.5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5635</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.05932776341005</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.2585031114141985</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44781.375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2254000</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2390000</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2249000</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2348000</v>
+      </c>
+      <c r="F95" t="n">
+        <v>74919.47021129</v>
+      </c>
+      <c r="G95" t="n">
+        <v>174462387049.5926</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J95" t="n">
+        <v>112800</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2302000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5755</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5870</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.017432667245873</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.077794671813893</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>44782.375</v>
       </c>
-      <c r="B31" t="n">
-        <v>31435000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>31743000</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30570000</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30881000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5070.74437884</v>
-      </c>
-      <c r="G31" t="n">
-        <v>158219287257.7007</v>
-      </c>
-      <c r="H31" t="n">
-        <v>117300</v>
-      </c>
-      <c r="I31" t="n">
-        <v>31559500</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9785009268207672</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.085444926589502</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.894561855707243</v>
+      <c r="B96" t="n">
+        <v>2345000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2370000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2236000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2280000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>79232.51817752</v>
+      </c>
+      <c r="G96" t="n">
+        <v>182363971627.1987</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J96" t="n">
+        <v>107200</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2457800</v>
+      </c>
+      <c r="L96" t="n">
+        <v>6144.5</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5700</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.077794671813893</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44783.375</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2281000</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2485000</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2232000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2445000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>140841.91742328</v>
+      </c>
+      <c r="G97" t="n">
+        <v>332917055245.8659</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J97" t="n">
+        <v>202400</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2388200</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5970.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>6112.5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.021224143706557</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.100669940814632</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44784.375</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2445000</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2561000</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2442000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2497000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>123980.30363001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>310779497349.4694</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J98" t="n">
+        <v>95200</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2647400</v>
+      </c>
+      <c r="L98" t="n">
+        <v>6618.5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>6242.5</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.100669940814632</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44785.375</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2495000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2604000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2472000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2597000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>65164.83866398</v>
+      </c>
+      <c r="G99" t="n">
+        <v>164749516106.4614</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J99" t="n">
+        <v>105600</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2590200</v>
+      </c>
+      <c r="L99" t="n">
+        <v>6475.5</v>
+      </c>
+      <c r="M99" t="n">
+        <v>6492.5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.000118716701413</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.10080060871935</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44786.375</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2598000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2676000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2583000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2644000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>71717.54285086</v>
+      </c>
+      <c r="G100" t="n">
+        <v>189182069281.7513</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J100" t="n">
+        <v>74400</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2703600</v>
+      </c>
+      <c r="L100" t="n">
+        <v>6759</v>
+      </c>
+      <c r="M100" t="n">
+        <v>6610</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.10080060871935</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44787.375</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2644000</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2694000</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2633000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2638000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>31468.92950333</v>
+      </c>
+      <c r="G101" t="n">
+        <v>83610513600.08531</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2342466.666666667</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48800</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2718400</v>
+      </c>
+      <c r="L101" t="n">
+        <v>6796</v>
+      </c>
+      <c r="M101" t="n">
+        <v>6595</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.10080060871935</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
